--- a/SIRS MODELS/spain/23_03_2020.xlsx
+++ b/SIRS MODELS/spain/23_03_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECBDD6E-AA51-4B31-8FD5-1B33887B59BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E495CEE2-6312-4228-B7FC-5E14F874A624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1297,6 +1297,27 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1349,27 +1370,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6196,7 +6196,7 @@
                   <c:v>40501</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45084</c:v>
+                  <c:v>46406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8057,8 +8057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="S21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8074,31 +8074,31 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="145" t="s">
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
-      <c r="P2" s="145" t="s">
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154"/>
+      <c r="P2" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="147"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="154"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
@@ -8140,13 +8140,13 @@
       <c r="N3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="154" t="s">
+      <c r="P3" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="156"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
       <c r="U3" s="118">
         <f>47100396</f>
         <v>47100396</v>
@@ -8196,13 +8196,13 @@
       <c r="N4" s="26">
         <v>0</v>
       </c>
-      <c r="P4" s="157" t="s">
+      <c r="P4" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="159"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="166"/>
       <c r="U4" s="119">
         <v>18535900</v>
       </c>
@@ -8255,13 +8255,13 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="P5" s="161" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="156"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="163"/>
       <c r="U5" s="120">
         <f>U3/U4</f>
         <v>2.5410363672656846</v>
@@ -8315,13 +8315,13 @@
         <f t="shared" ref="N6:N30" si="7">K6-K5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="154" t="s">
+      <c r="P6" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="156"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="163"/>
       <c r="U6" s="120">
         <f>7</f>
         <v>7</v>
@@ -8375,13 +8375,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P7" s="154" t="s">
+      <c r="P7" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
-      <c r="S7" s="155"/>
-      <c r="T7" s="156"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="162"/>
+      <c r="T7" s="163"/>
       <c r="U7" s="121">
         <f>2.68</f>
         <v>2.68</v>
@@ -8435,13 +8435,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P8" s="154" t="s">
+      <c r="P8" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
-      <c r="S8" s="155"/>
-      <c r="T8" s="156"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="163"/>
       <c r="U8" s="121">
         <f>U5</f>
         <v>2.5410363672656846</v>
@@ -8495,13 +8495,13 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P9" s="160" t="s">
+      <c r="P9" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="161"/>
-      <c r="R9" s="161"/>
-      <c r="S9" s="161"/>
-      <c r="T9" s="162"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="169"/>
       <c r="U9" s="117">
         <f>(U8^U8)/(U7^U6)</f>
         <v>1.0769705282736282E-2</v>
@@ -8604,14 +8604,14 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P11" s="145" t="s">
+      <c r="P11" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
-      <c r="U11" s="147"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="154"/>
     </row>
     <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
@@ -8850,12 +8850,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P15" s="148" t="s">
+      <c r="P15" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="150"/>
+      <c r="Q15" s="156"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="157"/>
     </row>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
@@ -10172,10 +10172,10 @@
         <f>INT(((-Q33+SQRT((Q33^2)-(4*P33*R33)))/(2*P33)))</f>
         <v>34647</v>
       </c>
-      <c r="T33" s="165">
+      <c r="T33" s="147">
         <v>35273</v>
       </c>
-      <c r="U33" s="166">
+      <c r="U33" s="148">
         <f t="shared" ref="U33:U34" si="29">S33-T33</f>
         <v>-626</v>
       </c>
@@ -10183,7 +10183,7 @@
         <f t="shared" ref="V33:V34" si="30">U33/T33</f>
         <v>-1.7747285459133049E-2</v>
       </c>
-      <c r="W33" s="166">
+      <c r="W33" s="148">
         <f t="shared" ref="W33:W34" si="31">W32+U33</f>
         <v>-905</v>
       </c>
@@ -10259,10 +10259,10 @@
         <f t="shared" ref="S34:S97" si="39">INT(((-Q34+SQRT((Q34^2)-(4*P34*R34)))/(2*P34)))</f>
         <v>40610</v>
       </c>
-      <c r="T34" s="167">
+      <c r="T34" s="149">
         <v>40501</v>
       </c>
-      <c r="U34" s="168">
+      <c r="U34" s="150">
         <f t="shared" si="29"/>
         <v>109</v>
       </c>
@@ -10270,11 +10270,11 @@
         <f t="shared" si="30"/>
         <v>2.6912915730475792E-3</v>
       </c>
-      <c r="W34" s="168">
+      <c r="W34" s="150">
         <f t="shared" si="31"/>
         <v>-796</v>
       </c>
-      <c r="X34" s="164">
+      <c r="X34" s="146">
         <f>V34+X33</f>
         <v>-8.1947417559273414E-2</v>
       </c>
@@ -10342,28 +10342,28 @@
         <f t="shared" si="12"/>
         <v>-39622.995063606199</v>
       </c>
-      <c r="S35" s="163">
+      <c r="S35" s="145">
         <f t="shared" si="39"/>
         <v>47435</v>
       </c>
-      <c r="T35" s="169">
-        <v>45084</v>
+      <c r="T35" s="151">
+        <v>46406</v>
       </c>
       <c r="U35" s="19">
         <f t="shared" ref="U35" si="40">S35-T35</f>
-        <v>2351</v>
+        <v>1029</v>
       </c>
       <c r="V35" s="128">
         <f t="shared" ref="V35" si="41">U35/T35</f>
-        <v>5.2147103185165466E-2</v>
+        <v>2.2173856828858338E-2</v>
       </c>
       <c r="W35" s="19">
         <f t="shared" ref="W35" si="42">W34+U35</f>
-        <v>1555</v>
+        <v>233</v>
       </c>
       <c r="X35" s="126">
         <f>V35+X34</f>
-        <v>-2.9800314374107947E-2</v>
+        <v>-5.9773560730415079E-2</v>
       </c>
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.25">
@@ -10502,7 +10502,7 @@
         <f t="shared" si="12"/>
         <v>-53846.684352876116</v>
       </c>
-      <c r="S37" s="163">
+      <c r="S37" s="145">
         <f t="shared" si="39"/>
         <v>63922</v>
       </c>
@@ -10648,7 +10648,7 @@
         <f t="shared" si="12"/>
         <v>-71879.488951880543</v>
       </c>
-      <c r="S39" s="163">
+      <c r="S39" s="145">
         <f t="shared" si="39"/>
         <v>84436</v>
       </c>
@@ -10794,7 +10794,7 @@
         <f t="shared" si="12"/>
         <v>-93852.152060287626</v>
       </c>
-      <c r="S41" s="163">
+      <c r="S41" s="145">
         <f t="shared" si="39"/>
         <v>108862</v>
       </c>
@@ -10940,7 +10940,7 @@
         <f t="shared" si="12"/>
         <v>-119365.61421045357</v>
       </c>
-      <c r="S43" s="163">
+      <c r="S43" s="145">
         <f t="shared" si="39"/>
         <v>136464</v>
       </c>
@@ -11086,7 +11086,7 @@
         <f t="shared" si="12"/>
         <v>-147370.02702295355</v>
       </c>
-      <c r="S45" s="163">
+      <c r="S45" s="145">
         <f t="shared" si="39"/>
         <v>165839</v>
       </c>
@@ -11232,7 +11232,7 @@
         <f t="shared" si="12"/>
         <v>-176215.48937361728</v>
       </c>
-      <c r="S47" s="163">
+      <c r="S47" s="145">
         <f t="shared" si="39"/>
         <v>195077</v>
       </c>
@@ -11378,7 +11378,7 @@
         <f t="shared" si="12"/>
         <v>-203916.46087942482</v>
       </c>
-      <c r="S49" s="163">
+      <c r="S49" s="145">
         <f t="shared" si="39"/>
         <v>222120</v>
       </c>
@@ -11524,7 +11524,7 @@
         <f t="shared" si="12"/>
         <v>-228541.06441095137</v>
       </c>
-      <c r="S51" s="163">
+      <c r="S51" s="145">
         <f t="shared" si="39"/>
         <v>245160</v>
       </c>
@@ -11670,7 +11670,7 @@
         <f t="shared" si="12"/>
         <v>-248568.19065265491</v>
       </c>
-      <c r="S53" s="163">
+      <c r="S53" s="145">
         <f t="shared" si="39"/>
         <v>262937</v>
       </c>
@@ -11816,7 +11816,7 @@
         <f t="shared" ref="R55:R86" si="45">-J54*(1+P$17+S$17)</f>
         <v>-263082.63720685843</v>
       </c>
-      <c r="S55" s="163">
+      <c r="S55" s="145">
         <f t="shared" si="39"/>
         <v>274839</v>
       </c>
@@ -11962,7 +11962,7 @@
         <f t="shared" si="45"/>
         <v>-271787.79263550887</v>
       </c>
-      <c r="S57" s="163">
+      <c r="S57" s="145">
         <f t="shared" si="39"/>
         <v>280834</v>
       </c>
@@ -12108,7 +12108,7 @@
         <f t="shared" si="45"/>
         <v>-274878.79604258854</v>
       </c>
-      <c r="S59" s="163">
+      <c r="S59" s="145">
         <f t="shared" si="39"/>
         <v>281309</v>
       </c>
@@ -12254,7 +12254,7 @@
         <f t="shared" si="45"/>
         <v>-272870.81466261065</v>
       </c>
-      <c r="S61" s="163">
+      <c r="S61" s="145">
         <f t="shared" si="39"/>
         <v>276894</v>
       </c>
@@ -12400,7 +12400,7 @@
         <f t="shared" si="45"/>
         <v>-266443.90827295359</v>
       </c>
-      <c r="S63" s="163">
+      <c r="S63" s="145">
         <f t="shared" si="39"/>
         <v>268322</v>
       </c>
@@ -12546,7 +12546,7 @@
         <f t="shared" si="45"/>
         <v>-256323.99434043147</v>
       </c>
-      <c r="S65" s="163">
+      <c r="S65" s="145">
         <f t="shared" si="39"/>
         <v>256332</v>
       </c>
@@ -12692,7 +12692,7 @@
         <f t="shared" si="45"/>
         <v>-243218.45211698013</v>
       </c>
-      <c r="S67" s="163">
+      <c r="S67" s="145">
         <f t="shared" si="39"/>
         <v>241625</v>
       </c>
@@ -12838,7 +12838,7 @@
         <f t="shared" si="45"/>
         <v>-227780.02190542041</v>
       </c>
-      <c r="S69" s="163">
+      <c r="S69" s="145">
         <f t="shared" si="39"/>
         <v>224838</v>
       </c>
@@ -12984,7 +12984,7 @@
         <f t="shared" si="45"/>
         <v>-210600.95088633854</v>
       </c>
-      <c r="S71" s="163">
+      <c r="S71" s="145">
         <f t="shared" si="39"/>
         <v>206547</v>
       </c>
@@ -13130,7 +13130,7 @@
         <f t="shared" si="45"/>
         <v>-192212.99311808631</v>
       </c>
-      <c r="S73" s="163">
+      <c r="S73" s="145">
         <f t="shared" si="39"/>
         <v>187269</v>
       </c>
@@ -13276,7 +13276,7 @@
         <f t="shared" si="45"/>
         <v>-173097.16649198011</v>
       </c>
-      <c r="S75" s="163">
+      <c r="S75" s="145">
         <f t="shared" si="39"/>
         <v>167476</v>
       </c>
@@ -13422,7 +13422,7 @@
         <f t="shared" si="45"/>
         <v>-153695.46107853984</v>
       </c>
-      <c r="S77" s="163">
+      <c r="S77" s="145">
         <f t="shared" si="39"/>
         <v>147604</v>
       </c>
@@ -13568,7 +13568,7 @@
         <f t="shared" si="45"/>
         <v>-134416.69330060843</v>
       </c>
-      <c r="S79" s="163">
+      <c r="S79" s="145">
         <f t="shared" si="39"/>
         <v>128056</v>
       </c>
@@ -13714,7 +13714,7 @@
         <f t="shared" si="45"/>
         <v>-115641.38441095134</v>
       </c>
-      <c r="S81" s="163">
+      <c r="S81" s="145">
         <f t="shared" si="39"/>
         <v>109207</v>
       </c>
@@ -13860,7 +13860,7 @@
         <f t="shared" si="45"/>
         <v>-97717.857710177006</v>
       </c>
-      <c r="S83" s="163">
+      <c r="S83" s="145">
         <f t="shared" si="39"/>
         <v>91397</v>
       </c>
@@ -14006,7 +14006,7 @@
         <f t="shared" si="45"/>
         <v>-80961.26285121683</v>
       </c>
-      <c r="S85" s="163">
+      <c r="S85" s="145">
         <f t="shared" si="39"/>
         <v>74928</v>
       </c>
@@ -14152,7 +14152,7 @@
         <f t="shared" ref="R87:R118" si="53">-J86*(1+P$17+S$17)</f>
         <v>-65641.867493086291</v>
       </c>
-      <c r="S87" s="163">
+      <c r="S87" s="145">
         <f t="shared" si="39"/>
         <v>60050</v>
       </c>
@@ -14298,7 +14298,7 @@
         <f t="shared" si="53"/>
         <v>-51972.373259126114</v>
       </c>
-      <c r="S89" s="163">
+      <c r="S89" s="145">
         <f t="shared" si="39"/>
         <v>46945</v>
       </c>
@@ -14444,7 +14444,7 @@
         <f t="shared" si="53"/>
         <v>-40095.231695243368</v>
       </c>
-      <c r="S91" s="163">
+      <c r="S91" s="145">
         <f t="shared" si="39"/>
         <v>35719</v>
       </c>
@@ -14590,7 +14590,7 @@
         <f t="shared" si="53"/>
         <v>-30070.935923672572</v>
       </c>
-      <c r="S93" s="163">
+      <c r="S93" s="145">
         <f t="shared" si="39"/>
         <v>26391</v>
       </c>
@@ -14736,7 +14736,7 @@
         <f t="shared" si="53"/>
         <v>-21875.093556415934</v>
       </c>
-      <c r="S95" s="163">
+      <c r="S95" s="145">
         <f t="shared" si="39"/>
         <v>18891</v>
       </c>
@@ -14882,7 +14882,7 @@
         <f t="shared" si="53"/>
         <v>-15400.378086283188</v>
       </c>
-      <c r="S97" s="163">
+      <c r="S97" s="145">
         <f t="shared" si="39"/>
         <v>13073</v>
       </c>
@@ -15028,7 +15028,7 @@
         <f t="shared" si="53"/>
         <v>-10470.188624170356</v>
       </c>
-      <c r="S99" s="163">
+      <c r="S99" s="145">
         <f t="shared" si="63"/>
         <v>8728</v>
       </c>
@@ -15174,7 +15174,7 @@
         <f t="shared" si="53"/>
         <v>-6861.0908960177003</v>
       </c>
-      <c r="S101" s="163">
+      <c r="S101" s="145">
         <f t="shared" si="63"/>
         <v>5611</v>
       </c>
@@ -15320,7 +15320,7 @@
         <f t="shared" si="53"/>
         <v>-4325.2582397676997</v>
       </c>
-      <c r="S103" s="163">
+      <c r="S103" s="145">
         <f t="shared" si="63"/>
         <v>3467</v>
       </c>
@@ -15466,7 +15466,7 @@
         <f t="shared" si="53"/>
         <v>-2617.791079922567</v>
       </c>
-      <c r="S105" s="163">
+      <c r="S105" s="145">
         <f t="shared" si="63"/>
         <v>2055</v>
       </c>
@@ -15612,7 +15612,7 @@
         <f t="shared" si="53"/>
         <v>-1519.1579245022126</v>
       </c>
-      <c r="S107" s="163">
+      <c r="S107" s="145">
         <f t="shared" si="63"/>
         <v>1167</v>
       </c>
@@ -15758,7 +15758,7 @@
         <f t="shared" si="53"/>
         <v>-843.97662472345144</v>
       </c>
-      <c r="S109" s="163">
+      <c r="S109" s="145">
         <f t="shared" si="63"/>
         <v>634</v>
       </c>
@@ -15904,7 +15904,7 @@
         <f t="shared" si="53"/>
         <v>-447.84424363938064</v>
       </c>
-      <c r="S111" s="163">
+      <c r="S111" s="145">
         <f t="shared" si="63"/>
         <v>328</v>
       </c>
@@ -16050,7 +16050,7 @@
         <f t="shared" si="53"/>
         <v>-226.36136061946908</v>
       </c>
-      <c r="S113" s="163">
+      <c r="S113" s="145">
         <f t="shared" si="63"/>
         <v>162</v>
       </c>
@@ -16196,7 +16196,7 @@
         <f t="shared" si="53"/>
         <v>-109.27789823008851</v>
       </c>
-      <c r="S115" s="163">
+      <c r="S115" s="145">
         <f t="shared" si="63"/>
         <v>76</v>
       </c>
@@ -16342,7 +16342,7 @@
         <f t="shared" si="53"/>
         <v>-49.760471515486735</v>
       </c>
-      <c r="S117" s="163">
+      <c r="S117" s="145">
         <f t="shared" si="63"/>
         <v>33</v>
       </c>
@@ -16488,7 +16488,7 @@
         <f t="shared" ref="R119:R150" si="66">-J118*(1+P$17+S$17)</f>
         <v>-20.489605918141596</v>
       </c>
-      <c r="S119" s="163">
+      <c r="S119" s="145">
         <f t="shared" si="63"/>
         <v>13</v>
       </c>
@@ -16634,7 +16634,7 @@
         <f t="shared" si="66"/>
         <v>-7.8055641592920368</v>
       </c>
-      <c r="S121" s="163">
+      <c r="S121" s="145">
         <f t="shared" si="63"/>
         <v>5</v>
       </c>
@@ -16780,7 +16780,7 @@
         <f t="shared" si="66"/>
         <v>-2.9270865597345139</v>
       </c>
-      <c r="S123" s="163">
+      <c r="S123" s="145">
         <f t="shared" si="63"/>
         <v>1</v>
       </c>
@@ -16926,7 +16926,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S125" s="163">
+      <c r="S125" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -17072,7 +17072,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S127" s="163">
+      <c r="S127" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -17218,7 +17218,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S129" s="163">
+      <c r="S129" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -17364,7 +17364,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S131" s="163">
+      <c r="S131" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -17510,7 +17510,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S133" s="163">
+      <c r="S133" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -17656,7 +17656,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S135" s="163">
+      <c r="S135" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -17802,7 +17802,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S137" s="163">
+      <c r="S137" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -17948,7 +17948,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S139" s="163">
+      <c r="S139" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -18094,7 +18094,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S141" s="163">
+      <c r="S141" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -18240,7 +18240,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S143" s="163">
+      <c r="S143" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -18386,7 +18386,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S145" s="163">
+      <c r="S145" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -18532,7 +18532,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S147" s="163">
+      <c r="S147" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -18678,7 +18678,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="S149" s="163">
+      <c r="S149" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -18824,7 +18824,7 @@
         <f t="shared" ref="R151:R182" si="74">-J150*(1+P$17+S$17)</f>
         <v>0</v>
       </c>
-      <c r="S151" s="163">
+      <c r="S151" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -18970,7 +18970,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S153" s="163">
+      <c r="S153" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -19116,7 +19116,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S155" s="163">
+      <c r="S155" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -19262,7 +19262,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S157" s="163">
+      <c r="S157" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -19408,7 +19408,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S159" s="163">
+      <c r="S159" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -19554,7 +19554,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S161" s="163">
+      <c r="S161" s="145">
         <f t="shared" si="63"/>
         <v>0</v>
       </c>
@@ -19700,7 +19700,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S163" s="163">
+      <c r="S163" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -19846,7 +19846,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S165" s="163">
+      <c r="S165" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -19992,7 +19992,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S167" s="163">
+      <c r="S167" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -20138,7 +20138,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S169" s="163">
+      <c r="S169" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -20284,7 +20284,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S171" s="163">
+      <c r="S171" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -20430,7 +20430,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S173" s="163">
+      <c r="S173" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -20576,7 +20576,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S175" s="163">
+      <c r="S175" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -20722,7 +20722,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S177" s="163">
+      <c r="S177" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -20868,7 +20868,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S179" s="163">
+      <c r="S179" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -21014,7 +21014,7 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="S181" s="163">
+      <c r="S181" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -21160,7 +21160,7 @@
         <f t="shared" ref="R183:R204" si="87">-J182*(1+P$17+S$17)</f>
         <v>0</v>
       </c>
-      <c r="S183" s="163">
+      <c r="S183" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -21306,7 +21306,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S185" s="163">
+      <c r="S185" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -21452,7 +21452,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S187" s="163">
+      <c r="S187" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -21598,7 +21598,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S189" s="163">
+      <c r="S189" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -21744,7 +21744,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S191" s="163">
+      <c r="S191" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -21890,7 +21890,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S193" s="163">
+      <c r="S193" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -22036,7 +22036,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S195" s="163">
+      <c r="S195" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -22182,7 +22182,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S197" s="163">
+      <c r="S197" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -22328,7 +22328,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S199" s="163">
+      <c r="S199" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -22474,7 +22474,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S201" s="163">
+      <c r="S201" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
@@ -22620,7 +22620,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="S203" s="163">
+      <c r="S203" s="145">
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
